--- a/hw_ms2130/BOM.xlsx
+++ b/hw_ms2130/BOM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="27735" windowHeight="11700"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Board1_MS2130_HDMI2USB_DEMO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -220,9 +220,6 @@
     <t>R11</t>
   </si>
   <si>
-    <t>0R/5%</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -323,13 +320,17 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>0R/5%/NC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,14 +724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -738,7 +739,7 @@
     <col min="4" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="54">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,7 +773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -789,7 +790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -806,7 +807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="27">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -823,7 +824,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -840,7 +841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -857,7 +858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -874,7 +875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -891,7 +892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -908,7 +909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -925,7 +926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -942,7 +943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>48</v>
       </c>
@@ -959,7 +960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -976,7 +977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -993,7 +994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1058,44 +1059,44 @@
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27">
+      <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1103,120 +1104,120 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="27">
+      <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
